--- a/Scripts/SimATM/SimATM - SCIC0011 - ATM Processing/Report/Report/Default.xlsx
+++ b/Scripts/SimATM/SimATM - SCIC0011 - ATM Processing/Report/Report/Default.xlsx
@@ -483,14 +483,15 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -500,11 +501,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -918,7 +918,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="5"/>
+      <c r="P2" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1052,7 +1052,7 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
-      <c r="T2" s="5"/>
+      <c r="T2" s="6"/>
     </row>
     <row r="3" ht="45">
       <c r="A3" s="1" t="s">
@@ -1092,7 +1092,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
-      <c r="T3" s="5"/>
+      <c r="T3" s="6"/>
     </row>
     <row r="4" ht="45">
       <c r="A4" s="1" t="s">
@@ -1132,7 +1132,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="5"/>
+      <c r="T4" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1265,7 +1265,7 @@
       <c r="H2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="3" bestFit="1" customWidth="1"/>
@@ -1295,7 +1295,7 @@
     <col min="8" max="16384" width="9.078125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1">
+    <row r="1" ht="15.1" customFormat="1">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -1322,22 +1322,22 @@
       <c r="A2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>259</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
     </row>
